--- a/data/outputs/management/80.xlsx
+++ b/data/outputs/management/80.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ40"/>
+  <dimension ref="A1:BR40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -907,6 +912,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1102,6 +1108,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1297,6 +1304,11 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>35731333</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1500,6 +1512,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1707,6 +1720,11 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>5084963</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1906,6 +1924,11 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>12461540</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2113,6 +2136,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2308,6 +2332,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2503,6 +2528,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2702,6 +2728,11 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>6663968</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2905,6 +2936,11 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>4097829</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3096,6 +3132,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3295,6 +3332,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3490,6 +3528,11 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>4578693</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3681,6 +3724,11 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>4118739</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3872,6 +3920,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4075,6 +4124,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4266,6 +4316,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4469,6 +4520,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4664,6 +4716,11 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>4078516</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4867,6 +4924,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5062,6 +5120,11 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr">
+        <is>
+          <t>29997296</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5257,6 +5320,11 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr">
+        <is>
+          <t>3847848</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5452,6 +5520,11 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr">
+        <is>
+          <t>5804946</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5647,6 +5720,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5842,6 +5916,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6037,6 +6112,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6232,6 +6308,11 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr">
+        <is>
+          <t>5045648</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6435,6 +6516,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6634,6 +6716,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6821,6 +6904,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7020,6 +7104,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7219,6 +7304,11 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr">
+        <is>
+          <t>5620269</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7426,6 +7516,11 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr">
+        <is>
+          <t>3040816</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7621,6 +7716,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7820,6 +7916,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8027,6 +8124,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8222,6 +8320,11 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr">
+        <is>
+          <t>3765986</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8433,6 +8536,11 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr">
+        <is>
+          <t>7526104</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
